--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_proj\case_galgame\Assets\Resources\story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39570F72-F77B-4809-99EB-EFED7E90995C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A145FEF9-EDBA-4868-9509-726B75367ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11966" yWindow="1903" windowWidth="11014" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
   <si>
     <t>Annie</t>
   </si>
@@ -103,6 +112,18 @@
   </si>
   <si>
     <t>choice2</t>
+  </si>
+  <si>
+    <t>LastBGM</t>
+  </si>
+  <si>
+    <t>LastBGImg</t>
+  </si>
+  <si>
+    <t>LastX1</t>
+  </si>
+  <si>
+    <t>LastX2</t>
   </si>
 </sst>
 </file>
@@ -420,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -431,7 +452,7 @@
     <col min="7" max="8" width="12.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -468,8 +489,20 @@
       <c r="L1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -498,7 +531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -508,6 +541,9 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
@@ -517,8 +553,24 @@
       <c r="L3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <f>IF(E2&lt;&gt;"",E2,M2)</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f>IF(F2&lt;&gt;"",F2,N2)</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>IF(H2&lt;&gt;"",H2,O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IF(K2&lt;&gt;"",K2,P2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -537,8 +589,30 @@
       <c r="H4">
         <v>540</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M20" si="0">IF(E3&lt;&gt;"",E3,M3)</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N20" si="1">IF(F3&lt;&gt;"",F3,N3)</f>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O20" si="2">IF(H3&lt;&gt;"",H3,O3)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P20" si="3">IF(K3&lt;&gt;"",K3,P3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -548,14 +622,36 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5">
         <v>-540</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -568,8 +664,30 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -582,8 +700,27 @@
       <c r="J7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -608,11 +745,24 @@
       <c r="I8" t="s">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -622,6 +772,9 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
@@ -631,8 +784,24 @@
       <c r="L9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -651,8 +820,30 @@
       <c r="H10">
         <v>540</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -662,14 +853,36 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11">
         <v>-540</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -682,8 +895,30 @@
       <c r="G12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -696,8 +931,27 @@
       <c r="J13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -722,11 +976,24 @@
       <c r="I14" t="s">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -736,6 +1003,9 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
@@ -745,8 +1015,24 @@
       <c r="L15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -765,8 +1051,30 @@
       <c r="H16">
         <v>540</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -776,14 +1084,36 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
       <c r="K17">
         <v>-540</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -796,8 +1126,30 @@
       <c r="G18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -810,8 +1162,27 @@
       <c r="J19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -826,6 +1197,22 @@
       </c>
       <c r="E20">
         <v>3</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>-540</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_proj\case_galgame\Assets\Resources\story\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\Unity\case_galgame\Assets\Resources\story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A145FEF9-EDBA-4868-9509-726B75367ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF207ED4-6EE8-4149-B64B-864168F02B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="2750" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,12 +130,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -444,15 +451,15 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="8" width="12.2109375" customWidth="1"/>
+    <col min="7" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -502,7 +509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -531,7 +538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -570,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -612,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -651,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -687,7 +694,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -720,7 +727,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -762,7 +769,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -801,7 +808,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -843,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -882,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -918,7 +925,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -951,7 +958,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1000,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1039,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1113,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1156,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1189,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1216,6 +1223,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\Unity\case_galgame\Assets\Resources\story\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A8A650-A232-4392-A2A5-08AB1C8B761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7555"/>
+    <workbookView xWindow="14650" yWindow="4320" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -128,19 +134,28 @@
   </si>
   <si>
     <t>choice</t>
+  </si>
+  <si>
+    <t>你好，[Name]！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Name]</t>
+  </si>
+  <si>
+    <t>Thank you!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello, [Name]!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,345 +164,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -495,314 +201,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1052,37 +475,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.59090909090909" customWidth="1"/>
-    <col min="2" max="2" width="14.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="7.59090909090909" customWidth="1"/>
-    <col min="4" max="5" width="8.59090909090909" customWidth="1"/>
-    <col min="6" max="6" width="4.59090909090909" customWidth="1"/>
-    <col min="7" max="7" width="10.6818181818182" customWidth="1"/>
-    <col min="8" max="8" width="5.59090909090909" customWidth="1"/>
-    <col min="9" max="9" width="11.8181818181818" customWidth="1"/>
-    <col min="10" max="10" width="10.6818181818182" customWidth="1"/>
-    <col min="11" max="11" width="5.59090909090909" customWidth="1"/>
-    <col min="12" max="12" width="11.8181818181818" customWidth="1"/>
-    <col min="13" max="13" width="10.6818181818182" customWidth="1"/>
-    <col min="14" max="14" width="8.59090909090909" customWidth="1"/>
-    <col min="15" max="16" width="12.9545454545455" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="4" max="5" width="8.54296875" customWidth="1"/>
+    <col min="6" max="6" width="4.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="5.54296875" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" customWidth="1"/>
+    <col min="14" max="14" width="8.54296875" customWidth="1"/>
+    <col min="15" max="16" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,12 +555,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1155,9 +578,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1194,12 +617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1224,12 +647,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1254,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1284,9 +707,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1314,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1344,9 +767,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1374,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1434,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1464,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1494,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1521,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1548,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1566,42 +989,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>